--- a/O3652/O3652-4 Deep Dive in Office Excel Add-ins/Completed Projects/Exercise 2/LoanAppraisal/LoanAppraisal/TestDoc.xlsx
+++ b/O3652/O3652-4 Deep Dive in Office Excel Add-ins/Completed Projects/Exercise 2/LoanAppraisal/LoanAppraisal/TestDoc.xlsx
@@ -1,32 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15">
+  <x:fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <x:workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DevProjects\LoanAppraisal\LoanAppraisal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GithubLocal\TrainingContent\O3652-4 Deep Dive Apps for Office in Excel\Starter Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-  </sheets>
-  <definedNames>
-    <definedName name="Applicant_Name">Sheet1!$C$2</definedName>
-    <definedName name="Available_Income">Sheet1!$F$8</definedName>
-    <definedName name="Fixed_Expenses">Sheet1!$F$7</definedName>
-    <definedName name="Interest_Rate">Sheet1!$C$6</definedName>
-    <definedName name="Loan_Amount">Sheet1!$C$5</definedName>
-    <definedName name="Loan_Duration">Sheet1!$C$7</definedName>
-    <definedName name="Monthly_Payment">Sheet1!$C$8</definedName>
-    <definedName name="Total_Income">Sheet1!$F$5</definedName>
-    <definedName name="Yearly_Mortgage">Sheet1!$F$6</definedName>
-  </definedNames>
-  <calcPr calcId="162913"/>
-</workbook>
+  <x:bookViews>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="17568" windowHeight="9912"/>
+  </x:bookViews>
+  <x:sheets>
+    <x:sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+  </x:sheets>
+  <x:definedNames>
+    <x:definedName name="Applicant_Name">Sheet1!$C$2</x:definedName>
+    <x:definedName name="Available_Income">Sheet1!$F$8</x:definedName>
+    <x:definedName name="Fixed_Expenses">Sheet1!$F$7</x:definedName>
+    <x:definedName name="Interest_Rate">Sheet1!$C$6</x:definedName>
+    <x:definedName name="Loan_Amount">Sheet1!$C$5</x:definedName>
+    <x:definedName name="Loan_Duration">Sheet1!$C$7</x:definedName>
+    <x:definedName name="Monthly_Payment">Sheet1!$C$8</x:definedName>
+    <x:definedName name="Total_Income">Sheet1!$F$5</x:definedName>
+    <x:definedName name="Yearly_Mortgage">Sheet1!$F$6</x:definedName>
+  </x:definedNames>
+  <x:calcPr calcId="152511"/>
+</x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
@@ -655,7 +655,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -750,11 +750,6 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-DD3C-4A1B-A907-AAD14B60CCB7}"/>
-              </c:ext>
-            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -774,11 +769,6 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-DD3C-4A1B-A907-AAD14B60CCB7}"/>
-              </c:ext>
-            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -798,11 +788,6 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-DD3C-4A1B-A907-AAD14B60CCB7}"/>
-              </c:ext>
-            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -912,11 +897,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-DD3C-4A1B-A907-AAD14B60CCB7}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:dLblPos val="ctr"/>
@@ -1966,12 +1946,12 @@
 </file>
 
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
-<wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
+<wetp:taskpanes xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
   <wetp:taskpane dockstate="" visibility="0" width="269" row="1">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
-  <wetp:taskpane dockstate="right" visibility="1" width="350" row="1">
-    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+  <wetp:taskpane dockstate="" visibility="1" width="350" row="1">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rd6e5e65785ce4c2a"/>
   </wetp:taskpane>
 </wetp:taskpanes>
 </file>
@@ -1994,8 +1974,8 @@
 </file>
 
 <file path=xl/webextensions/webextension2.xml><?xml version="1.0" encoding="utf-8"?>
-<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{14CB2CD4-8B5F-4AAF-8FD2-D55DC17F4B6F}">
-  <we:reference id="69fadb5e-fb18-43a8-b975-ee755139b801" version="1.0.0.0" store="developer" storeType="Registry"/>
+<we:webextension xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{82b77311-1230-482b-9811-f73ad9a9db28}">
+  <we:reference id="0b7621f2-37a3-4ce3-89a4-0073f4116827" version="1.0.0.0" store="developer" storeType="Registry"/>
   <we:alternateReferences/>
   <we:properties/>
   <we:bindings/>
@@ -2011,18 +1991,18 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="2.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="24.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="2.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="2.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B2" s="10" t="s">
         <v>10</v>
       </c>
@@ -2033,10 +2013,10 @@
       <c r="E2" s="11"/>
       <c r="F2" s="11"/>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B4" s="10" t="s">
         <v>0</v>
       </c>
@@ -2046,7 +2026,7 @@
       </c>
       <c r="F4" s="9"/>
     </row>
-    <row r="5" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B5" s="8" t="s">
         <v>3</v>
       </c>
@@ -2060,7 +2040,7 @@
         <v>82000</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B6" s="8" t="s">
         <v>1</v>
       </c>
@@ -2075,7 +2055,7 @@
         <v>6441.8594761456689</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B7" s="8" t="s">
         <v>9</v>
       </c>
@@ -2089,7 +2069,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B8" s="8" t="s">
         <v>11</v>
       </c>
